--- a/biology/Médecine/Antidote_(émission_de_télévision)/Antidote_(émission_de_télévision).xlsx
+++ b/biology/Médecine/Antidote_(émission_de_télévision)/Antidote_(émission_de_télévision).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antidote_(%C3%A9mission_de_t%C3%A9l%C3%A9vision)</t>
+          <t>Antidote_(émission_de_télévision)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Antidote est une émission de télévision française qui a été diffusée à partir du dimanche 21 février 2021 sur France 2. Elle était présentée par Michel Cymes et produite par 17 juin média.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Antidote_(%C3%A9mission_de_t%C3%A9l%C3%A9vision)</t>
+          <t>Antidote_(émission_de_télévision)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Concept</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Accompagnée de son équipe de chroniqueurs, le médecin Michel Cymes fait découvrir le fonctionnement du corps et de l'esprit humain tout en se divertissant. 
-Benoît Thévenet indique que l'émission a vocation de "créer un antidote à la morosité ambiante"[1].
+Benoît Thévenet indique que l'émission a vocation de "créer un antidote à la morosité ambiante".
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Antidote_(%C3%A9mission_de_t%C3%A9l%C3%A9vision)</t>
+          <t>Antidote_(émission_de_télévision)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Chroniqueurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cinq chroniqueurs sont présents aux côtés de Michel Cymes : l'humoriste Cécile Djunga, la vétérinaire Farah Kesri, le kinésithérapeute Major Mouvement et le mentaliste Fabien Olicard.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Antidote_(%C3%A9mission_de_t%C3%A9l%C3%A9vision)</t>
+          <t>Antidote_(émission_de_télévision)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +591,14 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'émission propose de revisiter de façon ludique nos idées reçues, nos croyances et nos connaissances en matière de santé. Pour ce faire, des expériences, jeux de mémoire, tests, quiz, mini-reportages, happenings sont prévus tout au long du programme[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'émission propose de revisiter de façon ludique nos idées reçues, nos croyances et nos connaissances en matière de santé. Pour ce faire, des expériences, jeux de mémoire, tests, quiz, mini-reportages, happenings sont prévus tout au long du programme
 Les thèmes abordés sont liés aux mystères du corps humain, aux pouvoirs incroyables du cerveau et aux secrets de nos comportements. 
-Il s'agit d'un programme tout public qui vise à apprendre, élargir et tester ses connaissances en termes de santé en s'amusant. Le ton est léger et la détente et l’humour sont de mise[3]
-Les questions auxquelles l'émission tente de répondre sont entre autres : « Le chocolat rend-il plus intelligent ? », « Les femmes sont-elles plus résistantes à la douleur que les hommes ? », « L’addiction aux selfies est-elle une maladie mentale ? » mais aussi « La peur nous fait-elle perdre nos moyens intellectuels ? » [4].
+Il s'agit d'un programme tout public qui vise à apprendre, élargir et tester ses connaissances en termes de santé en s'amusant. Le ton est léger et la détente et l’humour sont de mise
+Les questions auxquelles l'émission tente de répondre sont entre autres : « Le chocolat rend-il plus intelligent ? », « Les femmes sont-elles plus résistantes à la douleur que les hommes ? », « L’addiction aux selfies est-elle une maladie mentale ? » mais aussi « La peur nous fait-elle perdre nos moyens intellectuels ? » .
 </t>
         </is>
       </c>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Antidote_(%C3%A9mission_de_t%C3%A9l%C3%A9vision)</t>
+          <t>Antidote_(émission_de_télévision)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Présentateur : Michel Cymes
 Chroniqueurs : Fabien Olicard, Farah Kesri, Cécile Djunga, Major Mouvement
@@ -636,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Antidote_(%C3%A9mission_de_t%C3%A9l%C3%A9vision)</t>
+          <t>Antidote_(émission_de_télévision)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -654,12 +674,14 @@
           <t>Audiences</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les débuts de l'émission sont difficiles[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les débuts de l'émission sont difficiles.
 La première diffusion le dimanche 21 février 2021 attire seulement 1,02 million de téléspectateurs, soit 6,9 % de l’ensemble du public. 
 Le dimanche 28 février, les audiences ont baissé, atteignant 740 000 personnes, soit 5,3 % de l’ensemble du public. 
-Les audiences qui suivent continuent de diminuer. Le dimanche 21 mars, la part de marché s’élève à 4,6 %. Le dimanche 28 mars, elle est de 4,2 %[6].
+Les audiences qui suivent continuent de diminuer. Le dimanche 21 mars, la part de marché s’élève à 4,6 %. Le dimanche 28 mars, elle est de 4,2 %.
 </t>
         </is>
       </c>
